--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Btla-Cd79a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Btla-Cd79a.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Btla</t>
+  </si>
+  <si>
+    <t>Cd79a</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Btla</t>
-  </si>
-  <si>
-    <t>Cd79a</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -534,25 +534,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.310747</v>
+        <v>2.181848333333333</v>
       </c>
       <c r="H2">
-        <v>0.932241</v>
+        <v>6.545545000000001</v>
       </c>
       <c r="I2">
-        <v>0.03551873957835449</v>
+        <v>0.3851664139314479</v>
       </c>
       <c r="J2">
-        <v>0.03551873957835448</v>
+        <v>0.3851664139314478</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.391566</v>
+        <v>1.254004333333333</v>
       </c>
       <c r="N2">
-        <v>1.174698</v>
+        <v>3.762013</v>
       </c>
       <c r="O2">
-        <v>0.09286656008378641</v>
+        <v>0.213769953640151</v>
       </c>
       <c r="P2">
-        <v>0.09286656008378638</v>
+        <v>0.2137699536401511</v>
       </c>
       <c r="Q2">
-        <v>0.121677959802</v>
+        <v>2.736047264676111</v>
       </c>
       <c r="R2">
-        <v>1.095101638218</v>
+        <v>24.624425382085</v>
       </c>
       <c r="S2">
-        <v>0.003298503163153619</v>
+        <v>0.08233700644986884</v>
       </c>
       <c r="T2">
-        <v>0.003298503163153618</v>
+        <v>0.08233700644986884</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.310747</v>
+        <v>2.181848333333333</v>
       </c>
       <c r="H3">
-        <v>0.932241</v>
+        <v>6.545545000000001</v>
       </c>
       <c r="I3">
-        <v>0.03551873957835449</v>
+        <v>0.3851664139314479</v>
       </c>
       <c r="J3">
-        <v>0.03551873957835448</v>
+        <v>0.3851664139314478</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.294276</v>
       </c>
       <c r="O3">
-        <v>0.3394869491310634</v>
+        <v>0.244014888156424</v>
       </c>
       <c r="P3">
-        <v>0.3394869491310633</v>
+        <v>0.2440148881564241</v>
       </c>
       <c r="Q3">
-        <v>0.4448111280573333</v>
+        <v>3.123152977824445</v>
       </c>
       <c r="R3">
-        <v>4.003300152516</v>
+        <v>28.10837680042</v>
       </c>
       <c r="S3">
-        <v>0.01205814853643632</v>
+        <v>0.09398633941709318</v>
       </c>
       <c r="T3">
-        <v>0.01205814853643631</v>
+        <v>0.0939863394170932</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.310747</v>
+        <v>2.181848333333333</v>
       </c>
       <c r="H4">
-        <v>0.932241</v>
+        <v>6.545545000000001</v>
       </c>
       <c r="I4">
-        <v>0.03551873957835449</v>
+        <v>0.3851664139314479</v>
       </c>
       <c r="J4">
-        <v>0.03551873957835448</v>
+        <v>0.3851664139314478</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2075213333333333</v>
+        <v>0.438669</v>
       </c>
       <c r="N4">
-        <v>0.622564</v>
+        <v>1.316007</v>
       </c>
       <c r="O4">
-        <v>0.04921722613982692</v>
+        <v>0.07477984668849211</v>
       </c>
       <c r="P4">
-        <v>0.0492172261398269</v>
+        <v>0.07477984668849211</v>
       </c>
       <c r="Q4">
-        <v>0.06448663176933334</v>
+        <v>0.957109226535</v>
       </c>
       <c r="R4">
-        <v>0.580379685924</v>
+        <v>8.613983038815</v>
       </c>
       <c r="S4">
-        <v>0.001748133838029493</v>
+        <v>0.02880268538334996</v>
       </c>
       <c r="T4">
-        <v>0.001748133838029493</v>
+        <v>0.02880268538334996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.310747</v>
+        <v>2.181848333333333</v>
       </c>
       <c r="H5">
-        <v>0.932241</v>
+        <v>6.545545000000001</v>
       </c>
       <c r="I5">
-        <v>0.03551873957835449</v>
+        <v>0.3851664139314479</v>
       </c>
       <c r="J5">
-        <v>0.03551873957835448</v>
+        <v>0.3851664139314478</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.475865</v>
+        <v>0.7993786666666667</v>
       </c>
       <c r="N5">
-        <v>4.427595</v>
+        <v>2.398136</v>
       </c>
       <c r="O5">
-        <v>0.350026574569951</v>
+        <v>0.1362699760853504</v>
       </c>
       <c r="P5">
-        <v>0.3500265745699509</v>
+        <v>0.1362699760853504</v>
       </c>
       <c r="Q5">
-        <v>0.458620621155</v>
+        <v>1.744123011568889</v>
       </c>
       <c r="R5">
-        <v>4.127585590395</v>
+        <v>15.69710710412</v>
       </c>
       <c r="S5">
-        <v>0.01243250274765357</v>
+        <v>0.05248661801531857</v>
       </c>
       <c r="T5">
-        <v>0.01243250274765356</v>
+        <v>0.05248661801531857</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.310747</v>
+        <v>2.181848333333333</v>
       </c>
       <c r="H6">
-        <v>0.932241</v>
+        <v>6.545545000000001</v>
       </c>
       <c r="I6">
-        <v>0.03551873957835449</v>
+        <v>0.3851664139314479</v>
       </c>
       <c r="J6">
-        <v>0.03551873957835448</v>
+        <v>0.3851664139314478</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6196166666666668</v>
+        <v>1.079403666666667</v>
       </c>
       <c r="N6">
-        <v>1.85885</v>
+        <v>3.238211</v>
       </c>
       <c r="O6">
-        <v>0.1469526680148825</v>
+        <v>0.1840058009759741</v>
       </c>
       <c r="P6">
-        <v>0.1469526680148824</v>
+        <v>0.1840058009759741</v>
       </c>
       <c r="Q6">
-        <v>0.1925440203166667</v>
+        <v>2.355095091110555</v>
       </c>
       <c r="R6">
-        <v>1.73289618285</v>
+        <v>21.195855819995</v>
       </c>
       <c r="S6">
-        <v>0.005219573545564994</v>
+        <v>0.07087285450449965</v>
       </c>
       <c r="T6">
-        <v>0.005219573545564991</v>
+        <v>0.07087285450449964</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.310747</v>
+        <v>2.181848333333333</v>
       </c>
       <c r="H7">
-        <v>0.932241</v>
+        <v>6.545545000000001</v>
       </c>
       <c r="I7">
-        <v>0.03551873957835449</v>
+        <v>0.3851664139314479</v>
       </c>
       <c r="J7">
-        <v>0.03551873957835448</v>
+        <v>0.3851664139314478</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.09044266666666667</v>
+        <v>0.8632583333333335</v>
       </c>
       <c r="N7">
-        <v>0.271328</v>
+        <v>2.589775</v>
       </c>
       <c r="O7">
-        <v>0.0214500220604901</v>
+        <v>0.1471595344536083</v>
       </c>
       <c r="P7">
-        <v>0.02145002206049009</v>
+        <v>0.1471595344536083</v>
       </c>
       <c r="Q7">
-        <v>0.02810478733866667</v>
+        <v>1.883498755819445</v>
       </c>
       <c r="R7">
-        <v>0.252943086048</v>
+        <v>16.951488802375</v>
       </c>
       <c r="S7">
-        <v>0.0007618777475165066</v>
+        <v>0.05668091016131765</v>
       </c>
       <c r="T7">
-        <v>0.0007618777475165062</v>
+        <v>0.05668091016131765</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.585088</v>
+        <v>0.08561600000000001</v>
       </c>
       <c r="H8">
-        <v>4.755264</v>
+        <v>0.256848</v>
       </c>
       <c r="I8">
-        <v>0.1811773818597598</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="J8">
-        <v>0.1811773818597597</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.391566</v>
+        <v>1.254004333333333</v>
       </c>
       <c r="N8">
-        <v>1.174698</v>
+        <v>3.762013</v>
       </c>
       <c r="O8">
-        <v>0.09286656008378641</v>
+        <v>0.213769953640151</v>
       </c>
       <c r="P8">
-        <v>0.09286656008378638</v>
+        <v>0.2137699536401511</v>
       </c>
       <c r="Q8">
-        <v>0.6206665678080001</v>
+        <v>0.1073628350026667</v>
       </c>
       <c r="R8">
-        <v>5.585999110272001</v>
+        <v>0.9662655150239999</v>
       </c>
       <c r="S8">
-        <v>0.0168253202183025</v>
+        <v>0.003230914374988777</v>
       </c>
       <c r="T8">
-        <v>0.01682532021830248</v>
+        <v>0.003230914374988777</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.585088</v>
+        <v>0.08561600000000001</v>
       </c>
       <c r="H9">
-        <v>4.755264</v>
+        <v>0.256848</v>
       </c>
       <c r="I9">
-        <v>0.1811773818597598</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="J9">
-        <v>0.1811773818597597</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>4.294276</v>
       </c>
       <c r="O9">
-        <v>0.3394869491310634</v>
+        <v>0.244014888156424</v>
       </c>
       <c r="P9">
-        <v>0.3394869491310633</v>
+        <v>0.2440148881564241</v>
       </c>
       <c r="Q9">
-        <v>2.268935118762667</v>
+        <v>0.1225529113386667</v>
       </c>
       <c r="R9">
-        <v>20.420416068864</v>
+        <v>1.102976202048</v>
       </c>
       <c r="S9">
-        <v>0.06150735661912352</v>
+        <v>0.003688035649682579</v>
       </c>
       <c r="T9">
-        <v>0.06150735661912349</v>
+        <v>0.003688035649682579</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.585088</v>
+        <v>0.08561600000000001</v>
       </c>
       <c r="H10">
-        <v>4.755264</v>
+        <v>0.256848</v>
       </c>
       <c r="I10">
-        <v>0.1811773818597598</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="J10">
-        <v>0.1811773818597597</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2075213333333333</v>
+        <v>0.438669</v>
       </c>
       <c r="N10">
-        <v>0.622564</v>
+        <v>1.316007</v>
       </c>
       <c r="O10">
-        <v>0.04921722613982692</v>
+        <v>0.07477984668849211</v>
       </c>
       <c r="P10">
-        <v>0.0492172261398269</v>
+        <v>0.07477984668849211</v>
       </c>
       <c r="Q10">
-        <v>0.3289395752106667</v>
+        <v>0.037557085104</v>
       </c>
       <c r="R10">
-        <v>2.960456176896</v>
+        <v>0.338013765936</v>
       </c>
       <c r="S10">
-        <v>0.008917048174413571</v>
+        <v>0.00113022095720718</v>
       </c>
       <c r="T10">
-        <v>0.008917048174413567</v>
+        <v>0.00113022095720718</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.585088</v>
+        <v>0.08561600000000001</v>
       </c>
       <c r="H11">
-        <v>4.755264</v>
+        <v>0.256848</v>
       </c>
       <c r="I11">
-        <v>0.1811773818597598</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="J11">
-        <v>0.1811773818597597</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.475865</v>
+        <v>0.7993786666666667</v>
       </c>
       <c r="N11">
-        <v>4.427595</v>
+        <v>2.398136</v>
       </c>
       <c r="O11">
-        <v>0.350026574569951</v>
+        <v>0.1362699760853504</v>
       </c>
       <c r="P11">
-        <v>0.3500265745699509</v>
+        <v>0.1362699760853504</v>
       </c>
       <c r="Q11">
-        <v>2.33937590112</v>
+        <v>0.06843960392533334</v>
       </c>
       <c r="R11">
-        <v>21.05438311008</v>
+        <v>0.615956435328</v>
       </c>
       <c r="S11">
-        <v>0.06341689836192368</v>
+        <v>0.002059581419728769</v>
       </c>
       <c r="T11">
-        <v>0.06341689836192366</v>
+        <v>0.002059581419728769</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.585088</v>
+        <v>0.08561600000000001</v>
       </c>
       <c r="H12">
-        <v>4.755264</v>
+        <v>0.256848</v>
       </c>
       <c r="I12">
-        <v>0.1811773818597598</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="J12">
-        <v>0.1811773818597597</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6196166666666668</v>
+        <v>1.079403666666667</v>
       </c>
       <c r="N12">
-        <v>1.85885</v>
+        <v>3.238211</v>
       </c>
       <c r="O12">
-        <v>0.1469526680148825</v>
+        <v>0.1840058009759741</v>
       </c>
       <c r="P12">
-        <v>0.1469526680148824</v>
+        <v>0.1840058009759741</v>
       </c>
       <c r="Q12">
-        <v>0.9821469429333336</v>
+        <v>0.09241422432533335</v>
       </c>
       <c r="R12">
-        <v>8.839322486400002</v>
+        <v>0.831728018928</v>
       </c>
       <c r="S12">
-        <v>0.02662449964824287</v>
+        <v>0.002781059626627229</v>
       </c>
       <c r="T12">
-        <v>0.02662449964824285</v>
+        <v>0.002781059626627229</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.585088</v>
+        <v>0.08561600000000001</v>
       </c>
       <c r="H13">
-        <v>4.755264</v>
+        <v>0.256848</v>
       </c>
       <c r="I13">
-        <v>0.1811773818597598</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="J13">
-        <v>0.1811773818597597</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.09044266666666667</v>
+        <v>0.8632583333333335</v>
       </c>
       <c r="N13">
-        <v>0.271328</v>
+        <v>2.589775</v>
       </c>
       <c r="O13">
-        <v>0.0214500220604901</v>
+        <v>0.1471595344536083</v>
       </c>
       <c r="P13">
-        <v>0.02145002206049009</v>
+        <v>0.1471595344536083</v>
       </c>
       <c r="Q13">
-        <v>0.1433595856213334</v>
+        <v>0.07390872546666669</v>
       </c>
       <c r="R13">
-        <v>1.290236270592</v>
+        <v>0.6651785292000002</v>
       </c>
       <c r="S13">
-        <v>0.003886258837753686</v>
+        <v>0.002224165965265554</v>
       </c>
       <c r="T13">
-        <v>0.003886258837753684</v>
+        <v>0.002224165965265553</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.70248</v>
+        <v>3.198913333333333</v>
       </c>
       <c r="H14">
-        <v>8.10744</v>
+        <v>9.59674</v>
       </c>
       <c r="I14">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668147</v>
       </c>
       <c r="J14">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668146</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.391566</v>
+        <v>1.254004333333333</v>
       </c>
       <c r="N14">
-        <v>1.174698</v>
+        <v>3.762013</v>
       </c>
       <c r="O14">
-        <v>0.09286656008378641</v>
+        <v>0.213769953640151</v>
       </c>
       <c r="P14">
-        <v>0.09286656008378638</v>
+        <v>0.2137699536401511</v>
       </c>
       <c r="Q14">
-        <v>1.05819928368</v>
+        <v>4.011451181957778</v>
       </c>
       <c r="R14">
-        <v>9.523793553120001</v>
+        <v>36.10306063762</v>
       </c>
       <c r="S14">
-        <v>0.02868616214592383</v>
+        <v>0.1207182661302786</v>
       </c>
       <c r="T14">
-        <v>0.02868616214592382</v>
+        <v>0.1207182661302786</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.70248</v>
+        <v>3.198913333333333</v>
       </c>
       <c r="H15">
-        <v>8.10744</v>
+        <v>9.59674</v>
       </c>
       <c r="I15">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668147</v>
       </c>
       <c r="J15">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668146</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.294276</v>
       </c>
       <c r="O15">
-        <v>0.3394869491310634</v>
+        <v>0.244014888156424</v>
       </c>
       <c r="P15">
-        <v>0.3394869491310633</v>
+        <v>0.2440148881564241</v>
       </c>
       <c r="Q15">
-        <v>3.868398334826667</v>
+        <v>4.579005584471111</v>
       </c>
       <c r="R15">
-        <v>34.81558501344</v>
+        <v>41.21105026024</v>
       </c>
       <c r="S15">
-        <v>0.1048663551273172</v>
+        <v>0.1377979164359262</v>
       </c>
       <c r="T15">
-        <v>0.1048663551273171</v>
+        <v>0.1377979164359263</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.70248</v>
+        <v>3.198913333333333</v>
       </c>
       <c r="H16">
-        <v>8.10744</v>
+        <v>9.59674</v>
       </c>
       <c r="I16">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668147</v>
       </c>
       <c r="J16">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668146</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2075213333333333</v>
+        <v>0.438669</v>
       </c>
       <c r="N16">
-        <v>0.622564</v>
+        <v>1.316007</v>
       </c>
       <c r="O16">
-        <v>0.04921722613982692</v>
+        <v>0.07477984668849211</v>
       </c>
       <c r="P16">
-        <v>0.0492172261398269</v>
+        <v>0.07477984668849211</v>
       </c>
       <c r="Q16">
-        <v>0.5608222529066667</v>
+        <v>1.40326411302</v>
       </c>
       <c r="R16">
-        <v>5.04740027616</v>
+        <v>12.62937701718</v>
       </c>
       <c r="S16">
-        <v>0.0152030324817229</v>
+        <v>0.04222900964332381</v>
       </c>
       <c r="T16">
-        <v>0.01520303248172289</v>
+        <v>0.0422290096433238</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.70248</v>
+        <v>3.198913333333333</v>
       </c>
       <c r="H17">
-        <v>8.10744</v>
+        <v>9.59674</v>
       </c>
       <c r="I17">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668147</v>
       </c>
       <c r="J17">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668146</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.475865</v>
+        <v>0.7993786666666667</v>
       </c>
       <c r="N17">
-        <v>4.427595</v>
+        <v>2.398136</v>
       </c>
       <c r="O17">
-        <v>0.350026574569951</v>
+        <v>0.1362699760853504</v>
       </c>
       <c r="P17">
-        <v>0.3500265745699509</v>
+        <v>0.1362699760853504</v>
       </c>
       <c r="Q17">
-        <v>3.9884956452</v>
+        <v>2.557143075182223</v>
       </c>
       <c r="R17">
-        <v>35.8964608068</v>
+        <v>23.01428767664</v>
       </c>
       <c r="S17">
-        <v>0.1081220093049291</v>
+        <v>0.07695316838740369</v>
       </c>
       <c r="T17">
-        <v>0.1081220093049291</v>
+        <v>0.07695316838740371</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.70248</v>
+        <v>3.198913333333333</v>
       </c>
       <c r="H18">
-        <v>8.10744</v>
+        <v>9.59674</v>
       </c>
       <c r="I18">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668147</v>
       </c>
       <c r="J18">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668146</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6196166666666668</v>
+        <v>1.079403666666667</v>
       </c>
       <c r="N18">
-        <v>1.85885</v>
+        <v>3.238211</v>
       </c>
       <c r="O18">
-        <v>0.1469526680148825</v>
+        <v>0.1840058009759741</v>
       </c>
       <c r="P18">
-        <v>0.1469526680148824</v>
+        <v>0.1840058009759741</v>
       </c>
       <c r="Q18">
-        <v>1.674501649333334</v>
+        <v>3.452918781348889</v>
       </c>
       <c r="R18">
-        <v>15.070514844</v>
+        <v>31.07626903214</v>
       </c>
       <c r="S18">
-        <v>0.04539317552677414</v>
+        <v>0.1039101186742299</v>
       </c>
       <c r="T18">
-        <v>0.04539317552677412</v>
+        <v>0.1039101186742299</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.70248</v>
+        <v>3.198913333333333</v>
       </c>
       <c r="H19">
-        <v>8.10744</v>
+        <v>9.59674</v>
       </c>
       <c r="I19">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668147</v>
       </c>
       <c r="J19">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668146</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.09044266666666667</v>
+        <v>0.8632583333333335</v>
       </c>
       <c r="N19">
-        <v>0.271328</v>
+        <v>2.589775</v>
       </c>
       <c r="O19">
-        <v>0.0214500220604901</v>
+        <v>0.1471595344536083</v>
       </c>
       <c r="P19">
-        <v>0.02145002206049009</v>
+        <v>0.1471595344536083</v>
       </c>
       <c r="Q19">
-        <v>0.2444194978133334</v>
+        <v>2.761488592611112</v>
       </c>
       <c r="R19">
-        <v>2.19977548032</v>
+        <v>24.85339733350001</v>
       </c>
       <c r="S19">
-        <v>0.006625838302890804</v>
+        <v>0.08310262289565247</v>
       </c>
       <c r="T19">
-        <v>0.006625838302890801</v>
+        <v>0.08310262289565247</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,25 +1650,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>4.150503333333333</v>
+        <v>0.1983123333333333</v>
       </c>
       <c r="H20">
-        <v>12.45151</v>
+        <v>0.594937</v>
       </c>
       <c r="I20">
-        <v>0.474407305672328</v>
+        <v>0.03500850590823741</v>
       </c>
       <c r="J20">
-        <v>0.4744073056723279</v>
+        <v>0.0350085059082374</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.391566</v>
+        <v>1.254004333333333</v>
       </c>
       <c r="N20">
-        <v>1.174698</v>
+        <v>3.762013</v>
       </c>
       <c r="O20">
-        <v>0.09286656008378641</v>
+        <v>0.213769953640151</v>
       </c>
       <c r="P20">
-        <v>0.09286656008378638</v>
+        <v>0.2137699536401511</v>
       </c>
       <c r="Q20">
-        <v>1.62519598822</v>
+        <v>0.2486845253534444</v>
       </c>
       <c r="R20">
-        <v>14.62676389398</v>
+        <v>2.238160728181</v>
       </c>
       <c r="S20">
-        <v>0.04405657455640647</v>
+        <v>0.007483766685014864</v>
       </c>
       <c r="T20">
-        <v>0.04405657455640645</v>
+        <v>0.007483766685014864</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,25 +1712,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>4.150503333333333</v>
+        <v>0.1983123333333333</v>
       </c>
       <c r="H21">
-        <v>12.45151</v>
+        <v>0.594937</v>
       </c>
       <c r="I21">
-        <v>0.474407305672328</v>
+        <v>0.03500850590823741</v>
       </c>
       <c r="J21">
-        <v>0.4744073056723279</v>
+        <v>0.0350085059082374</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.294276</v>
       </c>
       <c r="O21">
-        <v>0.3394869491310634</v>
+        <v>0.244014888156424</v>
       </c>
       <c r="P21">
-        <v>0.3394869491310633</v>
+        <v>0.2440148881564241</v>
       </c>
       <c r="Q21">
-        <v>5.941135617417777</v>
+        <v>0.2838692978457778</v>
       </c>
       <c r="R21">
-        <v>53.47022055676</v>
+        <v>2.554823680612</v>
       </c>
       <c r="S21">
-        <v>0.1610550888481865</v>
+        <v>0.008542596653722062</v>
       </c>
       <c r="T21">
-        <v>0.1610550888481864</v>
+        <v>0.008542596653722062</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,55 +1774,55 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>4.150503333333333</v>
+        <v>0.1983123333333333</v>
       </c>
       <c r="H22">
-        <v>12.45151</v>
+        <v>0.594937</v>
       </c>
       <c r="I22">
-        <v>0.474407305672328</v>
+        <v>0.03500850590823741</v>
       </c>
       <c r="J22">
-        <v>0.4744073056723279</v>
+        <v>0.0350085059082374</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2075213333333333</v>
+        <v>0.438669</v>
       </c>
       <c r="N22">
-        <v>0.622564</v>
+        <v>1.316007</v>
       </c>
       <c r="O22">
-        <v>0.04921722613982692</v>
+        <v>0.07477984668849211</v>
       </c>
       <c r="P22">
-        <v>0.0492172261398269</v>
+        <v>0.07477984668849211</v>
       </c>
       <c r="Q22">
-        <v>0.8613179857377777</v>
+        <v>0.086993472951</v>
       </c>
       <c r="R22">
-        <v>7.751861871639999</v>
+        <v>0.782941256559</v>
       </c>
       <c r="S22">
-        <v>0.02334901164566096</v>
+        <v>0.002617930704611164</v>
       </c>
       <c r="T22">
-        <v>0.02334901164566095</v>
+        <v>0.002617930704611163</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>4.150503333333333</v>
+        <v>0.1983123333333333</v>
       </c>
       <c r="H23">
-        <v>12.45151</v>
+        <v>0.594937</v>
       </c>
       <c r="I23">
-        <v>0.474407305672328</v>
+        <v>0.03500850590823741</v>
       </c>
       <c r="J23">
-        <v>0.4744073056723279</v>
+        <v>0.0350085059082374</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.475865</v>
+        <v>0.7993786666666667</v>
       </c>
       <c r="N23">
-        <v>4.427595</v>
+        <v>2.398136</v>
       </c>
       <c r="O23">
-        <v>0.350026574569951</v>
+        <v>0.1362699760853504</v>
       </c>
       <c r="P23">
-        <v>0.3500265745699509</v>
+        <v>0.1362699760853504</v>
       </c>
       <c r="Q23">
-        <v>6.12558260205</v>
+        <v>0.1585266486035556</v>
       </c>
       <c r="R23">
-        <v>55.13024341845</v>
+        <v>1.426739837432</v>
       </c>
       <c r="S23">
-        <v>0.1660551641554446</v>
+        <v>0.004770608262899359</v>
       </c>
       <c r="T23">
-        <v>0.1660551641554446</v>
+        <v>0.004770608262899359</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>4.150503333333333</v>
+        <v>0.1983123333333333</v>
       </c>
       <c r="H24">
-        <v>12.45151</v>
+        <v>0.594937</v>
       </c>
       <c r="I24">
-        <v>0.474407305672328</v>
+        <v>0.03500850590823741</v>
       </c>
       <c r="J24">
-        <v>0.4744073056723279</v>
+        <v>0.0350085059082374</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6196166666666668</v>
+        <v>1.079403666666667</v>
       </c>
       <c r="N24">
-        <v>1.85885</v>
+        <v>3.238211</v>
       </c>
       <c r="O24">
-        <v>0.1469526680148825</v>
+        <v>0.1840058009759741</v>
       </c>
       <c r="P24">
-        <v>0.1469526680148824</v>
+        <v>0.1840058009759741</v>
       </c>
       <c r="Q24">
-        <v>2.571721040388889</v>
+        <v>0.2140590597452222</v>
       </c>
       <c r="R24">
-        <v>23.1454893635</v>
+        <v>1.926531537707</v>
       </c>
       <c r="S24">
-        <v>0.06971541929430047</v>
+        <v>0.006441768170617345</v>
       </c>
       <c r="T24">
-        <v>0.06971541929430043</v>
+        <v>0.006441768170617345</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>4.150503333333333</v>
+        <v>0.1983123333333333</v>
       </c>
       <c r="H25">
-        <v>12.45151</v>
+        <v>0.594937</v>
       </c>
       <c r="I25">
-        <v>0.474407305672328</v>
+        <v>0.03500850590823741</v>
       </c>
       <c r="J25">
-        <v>0.4744073056723279</v>
+        <v>0.0350085059082374</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.09044266666666667</v>
+        <v>0.8632583333333335</v>
       </c>
       <c r="N25">
-        <v>0.271328</v>
+        <v>2.589775</v>
       </c>
       <c r="O25">
-        <v>0.0214500220604901</v>
+        <v>0.1471595344536083</v>
       </c>
       <c r="P25">
-        <v>0.02145002206049009</v>
+        <v>0.1471595344536083</v>
       </c>
       <c r="Q25">
-        <v>0.3753825894755555</v>
+        <v>0.1711947743527778</v>
       </c>
       <c r="R25">
-        <v>3.37844330528</v>
+        <v>1.540752969175</v>
       </c>
       <c r="S25">
-        <v>0.0101760471723291</v>
+        <v>0.005151835431372612</v>
       </c>
       <c r="T25">
-        <v>0.0101760471723291</v>
+        <v>0.005151835431372612</v>
       </c>
     </row>
   </sheetData>
